--- a/A02SZL1_FA COMPARISON REPORT.xlsx
+++ b/A02SZL1_FA COMPARISON REPORT.xlsx
@@ -6269,7 +6269,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/14/2024 3:38:40 PM</t>
+            <t xml:space="preserve">5/15/2024 4:13:10 PM</t>
           </r>
           <r>
             <rPr>
